--- a/scores.xlsx
+++ b/scores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2337714\Documents\R\techlab-christmas-quiz-2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2337714\Documents\R\christmas-quiz-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6B23F1-2732-459A-B973-BB0716062929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4A9197-0691-4F08-961A-612527F6BFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="28335" windowHeight="20985" activeTab="1" xr2:uid="{09CAF8D9-6297-4E59-8343-32DCC14B01E5}"/>
+    <workbookView xWindow="27525" yWindow="0" windowWidth="24075" windowHeight="20985" activeTab="1" xr2:uid="{09CAF8D9-6297-4E59-8343-32DCC14B01E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Links" sheetId="1" r:id="rId1"/>
@@ -54,21 +54,6 @@
     <t>Round 5</t>
   </si>
   <si>
-    <t>https://forms.office.com/e/9xZT52cG0t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://forms.office.com/e/zZMAN552n4 </t>
-  </si>
-  <si>
-    <t>https://forms.office.com/e/jcvhmCHCsb</t>
-  </si>
-  <si>
-    <t>https://forms.office.com/e/n1rJzQgxnu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://forms.office.com/e/AX4egGZ2rW </t>
-  </si>
-  <si>
     <t>Answer sheet</t>
   </si>
   <si>
@@ -90,19 +75,34 @@
     <t>Team 4</t>
   </si>
   <si>
-    <t>https://datavis.nisra.gov.uk/techlab/drpvze/round-1-food-and-drink-recap.html</t>
-  </si>
-  <si>
-    <t>https://datavis.nisra.gov.uk/techlab/drpvze/round-2-christmas-movies-recap.html</t>
-  </si>
-  <si>
-    <t>https://datavis.nisra.gov.uk/techlab/drpvze/round-3-2024-recap.html</t>
-  </si>
-  <si>
-    <t>https://datavis.nisra.gov.uk/techlab/drpvze/round-4-music-recap.html</t>
-  </si>
-  <si>
-    <t>https://datavis.nisra.gov.uk/techlab/drpvze/round-5-12-days-recap.html</t>
+    <t>https://forms.cloud.microsoft/e/9xZT52cG0t</t>
+  </si>
+  <si>
+    <t>https://forms.cloud.microsoft/e/B2HcjcnrzE</t>
+  </si>
+  <si>
+    <t>https://forms.cloud.microsoft/e/jcvhmCHCsb</t>
+  </si>
+  <si>
+    <t>https://forms.cloud.microsoft/e/vCYds8Hv86</t>
+  </si>
+  <si>
+    <t>https://forms.cloud.microsoft/e/pp0KPW2Rz5</t>
+  </si>
+  <si>
+    <t>https://datavis.nisra.gov.uk/techlab/drpvze/round-1.html</t>
+  </si>
+  <si>
+    <t>https://datavis.nisra.gov.uk/techlab/drpvze/round-2.html</t>
+  </si>
+  <si>
+    <t>https://datavis.nisra.gov.uk/techlab/drpvze/round-3.html</t>
+  </si>
+  <si>
+    <t>https://datavis.nisra.gov.uk/techlab/drpvze/round-4.html</t>
+  </si>
+  <si>
+    <t>https://datavis.nisra.gov.uk/techlab/drpvze/round-5.html</t>
   </si>
 </sst>
 </file>
@@ -509,7 +509,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,10 +520,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -531,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
@@ -542,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>18</v>
@@ -553,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
@@ -564,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -575,7 +575,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>21</v>
@@ -584,16 +584,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{0C6C3C63-254E-4BFD-B6DB-0B3FB85714AE}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{4EE85757-2255-45FB-B70D-14072CBCF3B4}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{42898DAA-1967-45A4-AA3B-F84AE55A822A}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{5363E5AC-2A4C-4F01-9D76-5655A58D444B}"/>
-    <hyperlink ref="B2" r:id="rId5" xr:uid="{482D220B-766F-4674-95F7-02242F25B13D}"/>
-    <hyperlink ref="C2" r:id="rId6" xr:uid="{AF41AB5A-786E-4B9F-9358-EE7CB54A93C6}"/>
-    <hyperlink ref="C3" r:id="rId7" xr:uid="{6138A83D-63C7-4A32-9F24-1F0395638208}"/>
-    <hyperlink ref="C4" r:id="rId8" xr:uid="{E46F1F07-CD76-4874-8D2A-2574616C3E36}"/>
-    <hyperlink ref="C5" r:id="rId9" xr:uid="{7BE29321-8194-4481-A202-A98EF74A0ADF}"/>
-    <hyperlink ref="C6" r:id="rId10" xr:uid="{94F90575-F856-4F89-AB5D-9A7EA35FD437}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{AF41AB5A-786E-4B9F-9358-EE7CB54A93C6}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{6138A83D-63C7-4A32-9F24-1F0395638208}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{E46F1F07-CD76-4874-8D2A-2574616C3E36}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{7BE29321-8194-4481-A202-A98EF74A0ADF}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{94F90575-F856-4F89-AB5D-9A7EA35FD437}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{8CFF50D2-3F9C-481D-BB15-757693F7792D}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{D52643F8-6D05-4B75-B170-5178163B4F2D}"/>
+    <hyperlink ref="B4" r:id="rId8" xr:uid="{11AC4FB3-C074-4FA4-B739-743665CD279C}"/>
+    <hyperlink ref="B3" r:id="rId9" xr:uid="{E7DCF701-5EA0-4FFF-8727-690B65F419BF}"/>
+    <hyperlink ref="B2" r:id="rId10" xr:uid="{FACA358E-6B0A-4B48-8D9D-20D434CF21CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -604,7 +604,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +614,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -634,22 +634,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
